--- a/Карта регистров 02.09.xlsx
+++ b/Карта регистров 02.09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PF\Desktop\MT-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.nesbytov\Desktop\MT-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D70F15-5A83-4A5D-82AB-BD14E2BD458B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D9E34-AE0A-4576-A2A0-6A6C203163CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05F9FC53-DAF0-4F33-85D6-9C037B776003}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>Параметр</t>
   </si>
@@ -171,19 +171,7 @@
     <t>0x1C</t>
   </si>
   <si>
-    <t>0x1E</t>
-  </si>
-  <si>
-    <t>0x20</t>
-  </si>
-  <si>
     <t>Итог</t>
-  </si>
-  <si>
-    <t>0x021</t>
-  </si>
-  <si>
-    <t>11W + 22R</t>
   </si>
   <si>
     <t>Направление движения правых рольгангов</t>
@@ -222,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -280,12 +268,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -294,18 +331,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -314,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +373,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,13 +385,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -667,7 +717,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +897,7 @@
       <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +926,7 @@
       <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -905,13 +955,13 @@
       <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -934,13 +984,13 @@
       <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>51</v>
+      <c r="A10" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -960,406 +1010,408 @@
       <c r="G10" s="1">
         <v>16</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="D11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11">
         <v>16</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="13">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="D12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="11">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="11">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="D14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="11">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="11">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="D16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="11">
         <v>21</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="11">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="D18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="11">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="F19" s="11">
+        <v>3</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="11">
         <v>25</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="11">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="F20" s="11">
+        <v>3</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="21">
+        <v>25</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="21">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="21">
+        <v>3</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21">
+        <v>3</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="11">
         <v>26</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="D23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B24" s="19">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="D24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2</v>
+      </c>
+      <c r="F24" s="19">
+        <v>3</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="10">
-        <v>32</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="10">
-        <v>2</v>
-      </c>
-      <c r="F24" s="10">
-        <v>3</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="B25" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="H26" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
